--- a/biology/Histoire de la zoologie et de la botanique/Alfred_Hart_Everett/Alfred_Hart_Everett.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Alfred_Hart_Everett/Alfred_Hart_Everett.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Alfred Hart Everett, né le 11 octobre 1848 sur l'île Norfolk et mort le 18 juin 1898, est un fonctionnaire britannique en poste en Asie.
 Il récolte de très nombreux spécimens d’histoire naturelle, notamment aux Philippines et à Sarawak, qu’il fait parvenir à divers naturalistes comme Arthur Hay, neuvième marquis de Tweeddale (1824-1878). Ceci explique le nombre élevé d’espèces qui lui ont été dédiées.
@@ -539,7 +551,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bo Beolens &amp; Michael Watkins, 2003 : Whose Bird ? Common Bird Names and the People They Commemorate. Yale University Press (New Haven et Londres).</t>
         </is>
